--- a/raw-data-prep/raw_data/Post-Questionnaire_CH.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_CH.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="165" windowWidth="22995" windowHeight="11250"/>
   </bookViews>
@@ -11,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$81</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="46">
   <si>
     <t>Subject</t>
   </si>
@@ -138,13 +146,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> No</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>F</t>
@@ -153,17 +155,20 @@
     <t>irritated</t>
   </si>
   <si>
-    <t>knew.others</t>
+    <t>kNoew.others</t>
   </si>
   <si>
-    <t>knew.partner</t>
+    <t>kNoew.partNoer</t>
+  </si>
+  <si>
+    <t>race_other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +208,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -251,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +291,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,42 +502,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -611,13 +621,16 @@
         <v>32</v>
       </c>
       <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90</v>
       </c>
@@ -726,14 +739,14 @@
       <c r="AJ2">
         <v>3</v>
       </c>
-      <c r="AK2">
-        <v>2</v>
-      </c>
       <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89</v>
       </c>
@@ -842,14 +855,14 @@
       <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>2</v>
-      </c>
       <c r="AL3">
         <v>2</v>
       </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>92</v>
       </c>
@@ -958,14 +971,14 @@
       <c r="AJ4">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>2</v>
-      </c>
       <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>94</v>
       </c>
@@ -1074,14 +1087,14 @@
       <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>3</v>
-      </c>
       <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AM5">
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>93</v>
       </c>
@@ -1190,14 +1203,14 @@
       <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
       <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>96</v>
       </c>
@@ -1306,14 +1319,14 @@
       <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
       <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1422,14 +1435,14 @@
       <c r="AJ8" t="s">
         <v>38</v>
       </c>
-      <c r="AK8" t="s">
-        <v>38</v>
-      </c>
       <c r="AL8" t="s">
         <v>38</v>
       </c>
+      <c r="AM8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>98</v>
       </c>
@@ -1538,14 +1551,14 @@
       <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>2</v>
-      </c>
       <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>97</v>
       </c>
@@ -1654,14 +1667,14 @@
       <c r="AJ10">
         <v>5</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
       <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99</v>
       </c>
@@ -1770,14 +1783,14 @@
       <c r="AJ11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
       <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1886,14 +1899,14 @@
       <c r="AJ12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
       <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -2002,14 +2015,14 @@
       <c r="AJ13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
       <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>101</v>
       </c>
@@ -2118,14 +2131,14 @@
       <c r="AJ14">
         <v>5</v>
       </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
       <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>3.92</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>104</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2234,14 +2247,14 @@
       <c r="AJ15">
         <v>5</v>
       </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
       <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>103</v>
       </c>
@@ -2350,14 +2363,14 @@
       <c r="AJ16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
       <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>106</v>
       </c>
@@ -2466,14 +2479,14 @@
       <c r="AJ17">
         <v>5</v>
       </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
       <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>105</v>
       </c>
@@ -2582,14 +2595,14 @@
       <c r="AJ18">
         <v>5</v>
       </c>
-      <c r="AK18">
-        <v>2</v>
-      </c>
       <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>107</v>
       </c>
@@ -2698,14 +2711,14 @@
       <c r="AJ19">
         <v>5</v>
       </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
       <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>108</v>
       </c>
@@ -2814,14 +2827,14 @@
       <c r="AJ20">
         <v>3</v>
       </c>
-      <c r="AK20">
-        <v>1</v>
-      </c>
       <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>109</v>
       </c>
@@ -2930,14 +2943,14 @@
       <c r="AJ21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
       <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>3.65</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>110</v>
       </c>
@@ -3046,14 +3059,14 @@
       <c r="AJ22">
         <v>2</v>
       </c>
-      <c r="AK22">
-        <v>2</v>
-      </c>
       <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
         <v>2.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>111</v>
       </c>
@@ -3162,14 +3175,14 @@
       <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AK23">
-        <v>1</v>
-      </c>
       <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>3.65</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>112</v>
       </c>
@@ -3278,14 +3291,14 @@
       <c r="AJ24">
         <v>5</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
       <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>113</v>
       </c>
@@ -3394,14 +3407,14 @@
       <c r="AJ25">
         <v>5</v>
       </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
       <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>114</v>
       </c>
@@ -3510,14 +3523,14 @@
       <c r="AJ26">
         <v>5</v>
       </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
       <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>115</v>
       </c>
@@ -3626,14 +3639,14 @@
       <c r="AJ27">
         <v>2</v>
       </c>
-      <c r="AK27">
-        <v>2</v>
-      </c>
       <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>116</v>
       </c>
@@ -3742,14 +3755,14 @@
       <c r="AJ28">
         <v>5</v>
       </c>
-      <c r="AK28">
-        <v>2</v>
-      </c>
       <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AM28">
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>117</v>
       </c>
@@ -3858,14 +3871,14 @@
       <c r="AJ29">
         <v>5</v>
       </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
       <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>118</v>
       </c>
@@ -3974,14 +3987,14 @@
       <c r="AJ30">
         <v>2</v>
       </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
       <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>3.1</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>119</v>
       </c>
@@ -4090,14 +4103,14 @@
       <c r="AJ31">
         <v>5</v>
       </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
       <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>120</v>
       </c>
@@ -4206,14 +4219,14 @@
       <c r="AJ32">
         <v>2</v>
       </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
       <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>121</v>
       </c>
@@ -4322,14 +4335,14 @@
       <c r="AJ33">
         <v>5</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
       <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>122</v>
       </c>
@@ -4438,14 +4451,14 @@
       <c r="AJ34">
         <v>3</v>
       </c>
-      <c r="AK34">
-        <v>1</v>
-      </c>
       <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>123</v>
       </c>
@@ -4554,14 +4567,14 @@
       <c r="AJ35">
         <v>5</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
-      </c>
       <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>43</v>
       </c>
@@ -4670,14 +4683,14 @@
       <c r="AJ36">
         <v>3</v>
       </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>41</v>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
@@ -4786,14 +4799,14 @@
       <c r="AJ37">
         <v>5</v>
       </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
       <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>3.7</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -4902,14 +4915,14 @@
       <c r="AJ38">
         <v>5</v>
       </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
       <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>3.887</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
@@ -5018,14 +5031,14 @@
       <c r="AJ39">
         <v>5</v>
       </c>
-      <c r="AK39">
-        <v>1</v>
-      </c>
       <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>46</v>
       </c>
@@ -5051,7 +5064,7 @@
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J40">
         <v>7</v>
@@ -5134,14 +5147,14 @@
       <c r="AJ40">
         <v>5</v>
       </c>
-      <c r="AK40">
-        <v>1</v>
-      </c>
       <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>3.75</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>49</v>
       </c>
@@ -5164,10 +5177,10 @@
         <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J41">
         <v>6</v>
@@ -5250,14 +5263,14 @@
       <c r="AJ41">
         <v>5</v>
       </c>
-      <c r="AK41">
-        <v>1</v>
-      </c>
       <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>3.67</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>48</v>
       </c>
@@ -5280,10 +5293,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <v>7</v>
@@ -5366,14 +5379,14 @@
       <c r="AJ42">
         <v>5</v>
       </c>
-      <c r="AK42">
-        <v>1</v>
-      </c>
       <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>3.7</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>51</v>
       </c>
@@ -5396,10 +5409,10 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J43">
         <v>7</v>
@@ -5482,14 +5495,14 @@
       <c r="AJ43">
         <v>5</v>
       </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
       <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>2.7</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
@@ -5512,10 +5525,10 @@
         <v>7</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J44">
         <v>7</v>
@@ -5598,14 +5611,14 @@
       <c r="AJ44">
         <v>5</v>
       </c>
-      <c r="AK44">
-        <v>1</v>
-      </c>
       <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>3.7</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>53</v>
       </c>
@@ -5628,10 +5641,10 @@
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -5714,14 +5727,14 @@
       <c r="AJ45">
         <v>5</v>
       </c>
-      <c r="AK45">
-        <v>1</v>
-      </c>
       <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>3.2</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>52</v>
       </c>
@@ -5744,10 +5757,10 @@
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J46">
         <v>7</v>
@@ -5830,14 +5843,14 @@
       <c r="AJ46">
         <v>5</v>
       </c>
-      <c r="AK46">
-        <v>1</v>
-      </c>
       <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>3.8</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>54</v>
       </c>
@@ -5860,10 +5873,10 @@
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J47">
         <v>7</v>
@@ -5946,14 +5959,14 @@
       <c r="AJ47">
         <v>5</v>
       </c>
-      <c r="AK47">
-        <v>1</v>
-      </c>
       <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>3.9</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>55</v>
       </c>
@@ -5976,10 +5989,10 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -6062,14 +6075,14 @@
       <c r="AJ48">
         <v>5</v>
       </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
       <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>3.26</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>56</v>
       </c>
@@ -6092,10 +6105,10 @@
         <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J49">
         <v>7</v>
@@ -6178,14 +6191,14 @@
       <c r="AJ49">
         <v>5</v>
       </c>
-      <c r="AK49">
-        <v>2</v>
-      </c>
       <c r="AL49">
+        <v>2</v>
+      </c>
+      <c r="AM49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>57</v>
       </c>
@@ -6208,10 +6221,10 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -6286,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="AH50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI50">
         <v>18</v>
@@ -6294,14 +6307,14 @@
       <c r="AJ50">
         <v>5</v>
       </c>
-      <c r="AK50">
-        <v>1</v>
-      </c>
       <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>3.3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>59</v>
       </c>
@@ -6324,10 +6337,10 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -6410,14 +6423,14 @@
       <c r="AJ51">
         <v>5</v>
       </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
       <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>3.1</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>58</v>
       </c>
@@ -6443,7 +6456,7 @@
         <v>39</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J52">
         <v>6</v>
@@ -6526,14 +6539,14 @@
       <c r="AJ52">
         <v>5</v>
       </c>
-      <c r="AK52">
-        <v>3</v>
-      </c>
       <c r="AL52">
+        <v>3</v>
+      </c>
+      <c r="AM52">
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>60</v>
       </c>
@@ -6556,10 +6569,10 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J53">
         <v>7</v>
@@ -6642,14 +6655,14 @@
       <c r="AJ53">
         <v>5</v>
       </c>
-      <c r="AK53">
-        <v>1</v>
-      </c>
       <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>3.6</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>61</v>
       </c>
@@ -6672,10 +6685,10 @@
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -6758,14 +6771,14 @@
       <c r="AJ54">
         <v>5</v>
       </c>
-      <c r="AK54">
-        <v>1</v>
-      </c>
       <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>62</v>
       </c>
@@ -6788,10 +6801,10 @@
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -6874,14 +6887,14 @@
       <c r="AJ55">
         <v>5</v>
       </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
       <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>3.7</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>63</v>
       </c>
@@ -6904,10 +6917,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J56">
         <v>7</v>
@@ -6990,14 +7003,14 @@
       <c r="AJ56">
         <v>5</v>
       </c>
-      <c r="AK56">
-        <v>3</v>
-      </c>
       <c r="AL56">
+        <v>3</v>
+      </c>
+      <c r="AM56">
         <v>2.6</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>64</v>
       </c>
@@ -7020,10 +7033,10 @@
         <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J57">
         <v>6</v>
@@ -7106,14 +7119,14 @@
       <c r="AJ57">
         <v>2</v>
       </c>
-      <c r="AK57">
-        <v>1</v>
-      </c>
       <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>3.8</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>66</v>
       </c>
@@ -7136,10 +7149,10 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -7222,14 +7235,14 @@
       <c r="AJ58">
         <v>5</v>
       </c>
-      <c r="AK58">
-        <v>1</v>
-      </c>
       <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>65</v>
       </c>
@@ -7252,10 +7265,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J59">
         <v>7</v>
@@ -7338,14 +7351,14 @@
       <c r="AJ59">
         <v>5</v>
       </c>
-      <c r="AK59">
-        <v>1</v>
-      </c>
       <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>3.75</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>67</v>
       </c>
@@ -7368,10 +7381,10 @@
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>7</v>
@@ -7454,14 +7467,14 @@
       <c r="AJ60">
         <v>5</v>
       </c>
-      <c r="AK60">
-        <v>3</v>
-      </c>
       <c r="AL60">
+        <v>3</v>
+      </c>
+      <c r="AM60">
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>68</v>
       </c>
@@ -7484,10 +7497,10 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J61">
         <v>6</v>
@@ -7570,14 +7583,14 @@
       <c r="AJ61">
         <v>3</v>
       </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
       <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>3.2</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>69</v>
       </c>
@@ -7600,10 +7613,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J62">
         <v>7</v>
@@ -7686,14 +7699,14 @@
       <c r="AJ62">
         <v>5</v>
       </c>
-      <c r="AK62">
-        <v>2</v>
-      </c>
       <c r="AL62">
+        <v>2</v>
+      </c>
+      <c r="AM62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>70</v>
       </c>
@@ -7716,10 +7729,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J63">
         <v>7</v>
@@ -7802,14 +7815,14 @@
       <c r="AJ63">
         <v>5</v>
       </c>
-      <c r="AK63">
-        <v>3</v>
-      </c>
       <c r="AL63">
+        <v>3</v>
+      </c>
+      <c r="AM63">
         <v>3.18</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>71</v>
       </c>
@@ -7832,10 +7845,10 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J64">
         <v>7</v>
@@ -7918,14 +7931,14 @@
       <c r="AJ64">
         <v>5</v>
       </c>
-      <c r="AK64">
-        <v>1</v>
-      </c>
       <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>3.5</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>73</v>
       </c>
@@ -7948,10 +7961,10 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J65">
         <v>7</v>
@@ -8034,14 +8047,14 @@
       <c r="AJ65">
         <v>5</v>
       </c>
-      <c r="AK65">
-        <v>2</v>
-      </c>
       <c r="AL65">
+        <v>2</v>
+      </c>
+      <c r="AM65">
         <v>3.2</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>72</v>
       </c>
@@ -8064,10 +8077,10 @@
         <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J66">
         <v>6</v>
@@ -8150,14 +8163,14 @@
       <c r="AJ66">
         <v>5</v>
       </c>
-      <c r="AK66">
-        <v>1</v>
-      </c>
       <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>74</v>
       </c>
@@ -8180,10 +8193,10 @@
         <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -8266,14 +8279,14 @@
       <c r="AJ67">
         <v>5</v>
       </c>
-      <c r="AK67">
-        <v>2</v>
-      </c>
       <c r="AL67">
+        <v>2</v>
+      </c>
+      <c r="AM67">
         <v>3.45</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>75</v>
       </c>
@@ -8296,10 +8309,10 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J68">
         <v>7</v>
@@ -8382,14 +8395,14 @@
       <c r="AJ68">
         <v>5</v>
       </c>
-      <c r="AK68">
-        <v>1</v>
-      </c>
       <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>3.8</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>76</v>
       </c>
@@ -8498,14 +8511,14 @@
       <c r="AJ69">
         <v>5</v>
       </c>
-      <c r="AK69">
-        <v>1</v>
-      </c>
       <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>77</v>
       </c>
@@ -8528,10 +8541,10 @@
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J70">
         <v>6</v>
@@ -8614,14 +8627,14 @@
       <c r="AJ70">
         <v>5</v>
       </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
       <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>3.9</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>78</v>
       </c>
@@ -8644,10 +8657,10 @@
         <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J71">
         <v>7</v>
@@ -8730,14 +8743,14 @@
       <c r="AJ71">
         <v>5</v>
       </c>
-      <c r="AK71">
-        <v>2</v>
-      </c>
       <c r="AL71">
+        <v>2</v>
+      </c>
+      <c r="AM71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>79</v>
       </c>
@@ -8760,10 +8773,10 @@
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J72">
         <v>7</v>
@@ -8846,14 +8859,14 @@
       <c r="AJ72">
         <v>5</v>
       </c>
-      <c r="AK72">
-        <v>1</v>
-      </c>
       <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>3.7</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>80</v>
       </c>
@@ -8876,10 +8889,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J73">
         <v>7</v>
@@ -8962,14 +8975,14 @@
       <c r="AJ73">
         <v>1</v>
       </c>
-      <c r="AK73">
-        <v>1</v>
-      </c>
       <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>82</v>
       </c>
@@ -8992,10 +9005,10 @@
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -9078,14 +9091,14 @@
       <c r="AJ74">
         <v>5</v>
       </c>
-      <c r="AK74">
-        <v>1</v>
-      </c>
       <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>81</v>
       </c>
@@ -9108,10 +9121,10 @@
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J75">
         <v>7</v>
@@ -9194,14 +9207,14 @@
       <c r="AJ75">
         <v>5</v>
       </c>
-      <c r="AK75">
-        <v>1</v>
-      </c>
       <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>3.94</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>83</v>
       </c>
@@ -9224,10 +9237,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -9310,14 +9323,14 @@
       <c r="AJ76">
         <v>3</v>
       </c>
-      <c r="AK76">
-        <v>2</v>
-      </c>
       <c r="AL76">
+        <v>2</v>
+      </c>
+      <c r="AM76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>84</v>
       </c>
@@ -9340,10 +9353,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -9426,14 +9439,14 @@
       <c r="AJ77">
         <v>5</v>
       </c>
-      <c r="AK77">
-        <v>3</v>
-      </c>
       <c r="AL77">
+        <v>3</v>
+      </c>
+      <c r="AM77">
         <v>2.75</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>85</v>
       </c>
@@ -9456,10 +9469,10 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J78">
         <v>7</v>
@@ -9542,14 +9555,14 @@
       <c r="AJ78">
         <v>5</v>
       </c>
-      <c r="AK78">
-        <v>1</v>
-      </c>
       <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>3.98</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>87</v>
       </c>
@@ -9572,10 +9585,10 @@
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -9658,14 +9671,14 @@
       <c r="AJ79">
         <v>3</v>
       </c>
-      <c r="AK79">
-        <v>2</v>
-      </c>
       <c r="AL79">
+        <v>2</v>
+      </c>
+      <c r="AM79">
         <v>3.2</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>86</v>
       </c>
@@ -9688,10 +9701,10 @@
         <v>7</v>
       </c>
       <c r="H80" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J80">
         <v>7</v>
@@ -9774,14 +9787,14 @@
       <c r="AJ80">
         <v>5</v>
       </c>
-      <c r="AK80">
-        <v>1</v>
-      </c>
       <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>3.3</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>91</v>
       </c>
@@ -9804,10 +9817,10 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J81">
         <v>6</v>
@@ -9890,35 +9903,36 @@
       <c r="AJ81">
         <v>5</v>
       </c>
-      <c r="AK81">
-        <v>1</v>
-      </c>
       <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM81"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" spans="38:38">
+    <row r="16" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL16">
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>103</v>
       </c>
@@ -10034,7 +10048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>106</v>
       </c>
@@ -10150,7 +10164,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>105</v>
       </c>
@@ -10266,7 +10280,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>107</v>
       </c>
@@ -10382,7 +10396,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>108</v>
       </c>
@@ -10498,7 +10512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>109</v>
       </c>
@@ -10614,7 +10628,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>110</v>
       </c>
@@ -10730,7 +10744,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>111</v>
       </c>
@@ -10846,7 +10860,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>112</v>
       </c>
@@ -10962,7 +10976,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>113</v>
       </c>
@@ -11078,7 +11092,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>114</v>
       </c>
@@ -11194,7 +11208,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>115</v>
       </c>
@@ -11310,7 +11324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>116</v>
       </c>
@@ -11426,7 +11440,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>117</v>
       </c>
@@ -11542,7 +11556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>118</v>
       </c>
@@ -11658,7 +11672,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>119</v>
       </c>
@@ -11774,7 +11788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120</v>
       </c>
@@ -11890,7 +11904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>121</v>
       </c>
@@ -12006,7 +12020,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>122</v>
       </c>
@@ -12122,7 +12136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>123</v>
       </c>
@@ -12245,12 +12259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Post-Questionnaire_CH.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_CH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="165" windowWidth="22995" windowHeight="11250"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$81</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="46">
   <si>
     <t>Subject</t>
   </si>
@@ -132,19 +135,10 @@
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t xml:space="preserve"> No</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>F</t>
@@ -158,12 +152,18 @@
   <si>
     <t>knew.partner</t>
   </si>
+  <si>
+    <t>race_t</t>
+  </si>
+  <si>
+    <t>race2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,21 +494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -524,10 +526,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -611,13 +613,19 @@
         <v>32</v>
       </c>
       <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90</v>
       </c>
@@ -726,14 +734,14 @@
       <c r="AJ2">
         <v>3</v>
       </c>
-      <c r="AK2">
-        <v>2</v>
-      </c>
-      <c r="AL2">
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89</v>
       </c>
@@ -842,14 +850,14 @@
       <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>2</v>
-      </c>
-      <c r="AL3">
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>92</v>
       </c>
@@ -958,14 +966,14 @@
       <c r="AJ4">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>2</v>
-      </c>
-      <c r="AL4">
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>94</v>
       </c>
@@ -1074,14 +1082,14 @@
       <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <v>3</v>
-      </c>
-      <c r="AL5">
+      <c r="AM5">
+        <v>3</v>
+      </c>
+      <c r="AN5">
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>93</v>
       </c>
@@ -1190,14 +1198,14 @@
       <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>96</v>
       </c>
@@ -1306,14 +1314,14 @@
       <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1341,95 +1349,8 @@
       <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>98</v>
       </c>
@@ -1520,9 +1441,6 @@
       <c r="AD9">
         <v>5</v>
       </c>
-      <c r="AE9">
-        <v>53</v>
-      </c>
       <c r="AF9">
         <v>2</v>
       </c>
@@ -1538,14 +1456,14 @@
       <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>2</v>
-      </c>
-      <c r="AL9">
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>97</v>
       </c>
@@ -1654,14 +1572,14 @@
       <c r="AJ10">
         <v>5</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AL10">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99</v>
       </c>
@@ -1770,14 +1688,14 @@
       <c r="AJ11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
-      <c r="AL11">
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1886,14 +1804,14 @@
       <c r="AJ12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -1916,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -2002,14 +1920,14 @@
       <c r="AJ13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AL13">
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>101</v>
       </c>
@@ -2118,14 +2036,14 @@
       <c r="AJ14">
         <v>5</v>
       </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
-      <c r="AL14">
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
         <v>3.92</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>104</v>
       </c>
@@ -2148,7 +2066,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2234,14 +2152,14 @@
       <c r="AJ15">
         <v>5</v>
       </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15">
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>103</v>
       </c>
@@ -2350,14 +2268,14 @@
       <c r="AJ16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
-      <c r="AL16">
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>106</v>
       </c>
@@ -2466,14 +2384,14 @@
       <c r="AJ17">
         <v>5</v>
       </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>105</v>
       </c>
@@ -2582,14 +2500,14 @@
       <c r="AJ18">
         <v>5</v>
       </c>
-      <c r="AK18">
-        <v>2</v>
-      </c>
-      <c r="AL18">
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>107</v>
       </c>
@@ -2698,14 +2616,14 @@
       <c r="AJ19">
         <v>5</v>
       </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>108</v>
       </c>
@@ -2814,14 +2732,14 @@
       <c r="AJ20">
         <v>3</v>
       </c>
-      <c r="AK20">
-        <v>1</v>
-      </c>
-      <c r="AL20">
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>109</v>
       </c>
@@ -2930,14 +2848,14 @@
       <c r="AJ21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
-      <c r="AL21">
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
         <v>3.65</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>110</v>
       </c>
@@ -3046,14 +2964,14 @@
       <c r="AJ22">
         <v>2</v>
       </c>
-      <c r="AK22">
-        <v>2</v>
-      </c>
-      <c r="AL22">
+      <c r="AM22">
+        <v>2</v>
+      </c>
+      <c r="AN22">
         <v>2.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>111</v>
       </c>
@@ -3162,14 +3080,14 @@
       <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AK23">
-        <v>1</v>
-      </c>
-      <c r="AL23">
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
         <v>3.65</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>112</v>
       </c>
@@ -3278,14 +3196,14 @@
       <c r="AJ24">
         <v>5</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
-      <c r="AL24">
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>113</v>
       </c>
@@ -3394,14 +3312,14 @@
       <c r="AJ25">
         <v>5</v>
       </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
-      <c r="AL25">
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>114</v>
       </c>
@@ -3510,14 +3428,14 @@
       <c r="AJ26">
         <v>5</v>
       </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
-      <c r="AL26">
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>115</v>
       </c>
@@ -3626,14 +3544,14 @@
       <c r="AJ27">
         <v>2</v>
       </c>
-      <c r="AK27">
-        <v>2</v>
-      </c>
-      <c r="AL27">
+      <c r="AM27">
+        <v>2</v>
+      </c>
+      <c r="AN27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>116</v>
       </c>
@@ -3742,14 +3660,14 @@
       <c r="AJ28">
         <v>5</v>
       </c>
-      <c r="AK28">
-        <v>2</v>
-      </c>
-      <c r="AL28">
+      <c r="AM28">
+        <v>2</v>
+      </c>
+      <c r="AN28">
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>117</v>
       </c>
@@ -3858,14 +3776,14 @@
       <c r="AJ29">
         <v>5</v>
       </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29">
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>118</v>
       </c>
@@ -3974,14 +3892,14 @@
       <c r="AJ30">
         <v>2</v>
       </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
-      <c r="AL30">
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
         <v>3.1</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>119</v>
       </c>
@@ -4090,14 +4008,14 @@
       <c r="AJ31">
         <v>5</v>
       </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
-      <c r="AL31">
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>120</v>
       </c>
@@ -4206,14 +4124,14 @@
       <c r="AJ32">
         <v>2</v>
       </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AL32">
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>121</v>
       </c>
@@ -4322,14 +4240,14 @@
       <c r="AJ33">
         <v>5</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
-      <c r="AL33">
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>122</v>
       </c>
@@ -4438,14 +4356,14 @@
       <c r="AJ34">
         <v>3</v>
       </c>
-      <c r="AK34">
-        <v>1</v>
-      </c>
-      <c r="AL34">
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>123</v>
       </c>
@@ -4554,14 +4472,14 @@
       <c r="AJ35">
         <v>5</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
-      </c>
-      <c r="AL35">
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>43</v>
       </c>
@@ -4670,14 +4588,11 @@
       <c r="AJ36">
         <v>3</v>
       </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>41</v>
+      <c r="AM36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
@@ -4786,14 +4701,14 @@
       <c r="AJ37">
         <v>5</v>
       </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
-      <c r="AL37">
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
         <v>3.7</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -4902,14 +4817,14 @@
       <c r="AJ38">
         <v>5</v>
       </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
-      <c r="AL38">
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
         <v>3.887</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
@@ -4932,10 +4847,10 @@
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <v>7</v>
@@ -5018,14 +4933,14 @@
       <c r="AJ39">
         <v>5</v>
       </c>
-      <c r="AK39">
-        <v>1</v>
-      </c>
-      <c r="AL39">
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>46</v>
       </c>
@@ -5048,10 +4963,10 @@
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J40">
         <v>7</v>
@@ -5134,14 +5049,14 @@
       <c r="AJ40">
         <v>5</v>
       </c>
-      <c r="AK40">
-        <v>1</v>
-      </c>
-      <c r="AL40">
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
         <v>3.75</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>49</v>
       </c>
@@ -5164,10 +5079,10 @@
         <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J41">
         <v>6</v>
@@ -5250,14 +5165,14 @@
       <c r="AJ41">
         <v>5</v>
       </c>
-      <c r="AK41">
-        <v>1</v>
-      </c>
-      <c r="AL41">
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
         <v>3.67</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>48</v>
       </c>
@@ -5280,10 +5195,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <v>7</v>
@@ -5366,14 +5281,14 @@
       <c r="AJ42">
         <v>5</v>
       </c>
-      <c r="AK42">
-        <v>1</v>
-      </c>
-      <c r="AL42">
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
         <v>3.7</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>51</v>
       </c>
@@ -5396,10 +5311,10 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J43">
         <v>7</v>
@@ -5482,14 +5397,14 @@
       <c r="AJ43">
         <v>5</v>
       </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
-      <c r="AL43">
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
         <v>2.7</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
@@ -5512,10 +5427,10 @@
         <v>7</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J44">
         <v>7</v>
@@ -5598,14 +5513,14 @@
       <c r="AJ44">
         <v>5</v>
       </c>
-      <c r="AK44">
-        <v>1</v>
-      </c>
-      <c r="AL44">
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
         <v>3.7</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>53</v>
       </c>
@@ -5628,10 +5543,10 @@
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -5714,14 +5629,14 @@
       <c r="AJ45">
         <v>5</v>
       </c>
-      <c r="AK45">
-        <v>1</v>
-      </c>
-      <c r="AL45">
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
         <v>3.2</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>52</v>
       </c>
@@ -5744,10 +5659,10 @@
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J46">
         <v>7</v>
@@ -5830,14 +5745,14 @@
       <c r="AJ46">
         <v>5</v>
       </c>
-      <c r="AK46">
-        <v>1</v>
-      </c>
-      <c r="AL46">
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
         <v>3.8</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>54</v>
       </c>
@@ -5860,10 +5775,10 @@
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J47">
         <v>7</v>
@@ -5946,14 +5861,14 @@
       <c r="AJ47">
         <v>5</v>
       </c>
-      <c r="AK47">
-        <v>1</v>
-      </c>
-      <c r="AL47">
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
         <v>3.9</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>55</v>
       </c>
@@ -5976,10 +5891,10 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -6062,14 +5977,14 @@
       <c r="AJ48">
         <v>5</v>
       </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
-      <c r="AL48">
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
         <v>3.26</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>56</v>
       </c>
@@ -6092,10 +6007,10 @@
         <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J49">
         <v>7</v>
@@ -6178,14 +6093,14 @@
       <c r="AJ49">
         <v>5</v>
       </c>
-      <c r="AK49">
-        <v>2</v>
-      </c>
-      <c r="AL49">
+      <c r="AM49">
+        <v>2</v>
+      </c>
+      <c r="AN49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>57</v>
       </c>
@@ -6208,10 +6123,10 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -6286,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="AH50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AI50">
         <v>18</v>
@@ -6294,14 +6209,14 @@
       <c r="AJ50">
         <v>5</v>
       </c>
-      <c r="AK50">
-        <v>1</v>
-      </c>
-      <c r="AL50">
+      <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
         <v>3.3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>59</v>
       </c>
@@ -6324,10 +6239,10 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -6410,14 +6325,14 @@
       <c r="AJ51">
         <v>5</v>
       </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
-      <c r="AL51">
+      <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
         <v>3.1</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>58</v>
       </c>
@@ -6440,10 +6355,10 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J52">
         <v>6</v>
@@ -6526,14 +6441,14 @@
       <c r="AJ52">
         <v>5</v>
       </c>
-      <c r="AK52">
-        <v>3</v>
-      </c>
-      <c r="AL52">
+      <c r="AM52">
+        <v>3</v>
+      </c>
+      <c r="AN52">
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>60</v>
       </c>
@@ -6556,10 +6471,10 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J53">
         <v>7</v>
@@ -6642,14 +6557,14 @@
       <c r="AJ53">
         <v>5</v>
       </c>
-      <c r="AK53">
-        <v>1</v>
-      </c>
-      <c r="AL53">
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
         <v>3.6</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>61</v>
       </c>
@@ -6672,10 +6587,10 @@
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -6758,14 +6673,14 @@
       <c r="AJ54">
         <v>5</v>
       </c>
-      <c r="AK54">
-        <v>1</v>
-      </c>
-      <c r="AL54">
+      <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>62</v>
       </c>
@@ -6788,10 +6703,10 @@
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -6874,14 +6789,14 @@
       <c r="AJ55">
         <v>5</v>
       </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
-      <c r="AL55">
+      <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
         <v>3.7</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>63</v>
       </c>
@@ -6904,10 +6819,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J56">
         <v>7</v>
@@ -6990,14 +6905,14 @@
       <c r="AJ56">
         <v>5</v>
       </c>
-      <c r="AK56">
-        <v>3</v>
-      </c>
-      <c r="AL56">
+      <c r="AM56">
+        <v>3</v>
+      </c>
+      <c r="AN56">
         <v>2.6</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>64</v>
       </c>
@@ -7020,10 +6935,10 @@
         <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J57">
         <v>6</v>
@@ -7106,14 +7021,14 @@
       <c r="AJ57">
         <v>2</v>
       </c>
-      <c r="AK57">
-        <v>1</v>
-      </c>
-      <c r="AL57">
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
         <v>3.8</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>66</v>
       </c>
@@ -7136,10 +7051,10 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -7222,14 +7137,14 @@
       <c r="AJ58">
         <v>5</v>
       </c>
-      <c r="AK58">
-        <v>1</v>
-      </c>
-      <c r="AL58">
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>65</v>
       </c>
@@ -7252,10 +7167,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J59">
         <v>7</v>
@@ -7338,14 +7253,14 @@
       <c r="AJ59">
         <v>5</v>
       </c>
-      <c r="AK59">
-        <v>1</v>
-      </c>
-      <c r="AL59">
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
         <v>3.75</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>67</v>
       </c>
@@ -7368,10 +7283,10 @@
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>7</v>
@@ -7454,14 +7369,14 @@
       <c r="AJ60">
         <v>5</v>
       </c>
-      <c r="AK60">
-        <v>3</v>
-      </c>
-      <c r="AL60">
+      <c r="AM60">
+        <v>3</v>
+      </c>
+      <c r="AN60">
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>68</v>
       </c>
@@ -7484,10 +7399,10 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J61">
         <v>6</v>
@@ -7570,14 +7485,14 @@
       <c r="AJ61">
         <v>3</v>
       </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
-      <c r="AL61">
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
         <v>3.2</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>69</v>
       </c>
@@ -7600,10 +7515,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J62">
         <v>7</v>
@@ -7686,14 +7601,14 @@
       <c r="AJ62">
         <v>5</v>
       </c>
-      <c r="AK62">
-        <v>2</v>
-      </c>
-      <c r="AL62">
+      <c r="AM62">
+        <v>2</v>
+      </c>
+      <c r="AN62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>70</v>
       </c>
@@ -7716,10 +7631,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J63">
         <v>7</v>
@@ -7802,14 +7717,14 @@
       <c r="AJ63">
         <v>5</v>
       </c>
-      <c r="AK63">
-        <v>3</v>
-      </c>
-      <c r="AL63">
+      <c r="AM63">
+        <v>3</v>
+      </c>
+      <c r="AN63">
         <v>3.18</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>71</v>
       </c>
@@ -7832,10 +7747,10 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J64">
         <v>7</v>
@@ -7918,14 +7833,14 @@
       <c r="AJ64">
         <v>5</v>
       </c>
-      <c r="AK64">
-        <v>1</v>
-      </c>
-      <c r="AL64">
+      <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
         <v>3.5</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>73</v>
       </c>
@@ -7948,10 +7863,10 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J65">
         <v>7</v>
@@ -8034,14 +7949,14 @@
       <c r="AJ65">
         <v>5</v>
       </c>
-      <c r="AK65">
-        <v>2</v>
-      </c>
-      <c r="AL65">
+      <c r="AM65">
+        <v>2</v>
+      </c>
+      <c r="AN65">
         <v>3.2</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>72</v>
       </c>
@@ -8064,10 +7979,10 @@
         <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J66">
         <v>6</v>
@@ -8150,14 +8065,14 @@
       <c r="AJ66">
         <v>5</v>
       </c>
-      <c r="AK66">
-        <v>1</v>
-      </c>
-      <c r="AL66">
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>74</v>
       </c>
@@ -8180,10 +8095,10 @@
         <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -8266,14 +8181,14 @@
       <c r="AJ67">
         <v>5</v>
       </c>
-      <c r="AK67">
-        <v>2</v>
-      </c>
-      <c r="AL67">
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
         <v>3.45</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>75</v>
       </c>
@@ -8296,10 +8211,10 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J68">
         <v>7</v>
@@ -8382,14 +8297,14 @@
       <c r="AJ68">
         <v>5</v>
       </c>
-      <c r="AK68">
-        <v>1</v>
-      </c>
-      <c r="AL68">
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
         <v>3.8</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>76</v>
       </c>
@@ -8412,10 +8327,10 @@
         <v>7</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J69">
         <v>6</v>
@@ -8498,14 +8413,14 @@
       <c r="AJ69">
         <v>5</v>
       </c>
-      <c r="AK69">
-        <v>1</v>
-      </c>
-      <c r="AL69">
+      <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>77</v>
       </c>
@@ -8528,10 +8443,10 @@
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J70">
         <v>6</v>
@@ -8614,14 +8529,14 @@
       <c r="AJ70">
         <v>5</v>
       </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
-      <c r="AL70">
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
         <v>3.9</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>78</v>
       </c>
@@ -8644,10 +8559,10 @@
         <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J71">
         <v>7</v>
@@ -8730,14 +8645,14 @@
       <c r="AJ71">
         <v>5</v>
       </c>
-      <c r="AK71">
-        <v>2</v>
-      </c>
-      <c r="AL71">
+      <c r="AM71">
+        <v>2</v>
+      </c>
+      <c r="AN71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>79</v>
       </c>
@@ -8760,10 +8675,10 @@
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J72">
         <v>7</v>
@@ -8846,14 +8761,14 @@
       <c r="AJ72">
         <v>5</v>
       </c>
-      <c r="AK72">
-        <v>1</v>
-      </c>
-      <c r="AL72">
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
         <v>3.7</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>80</v>
       </c>
@@ -8876,10 +8791,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J73">
         <v>7</v>
@@ -8962,14 +8877,14 @@
       <c r="AJ73">
         <v>1</v>
       </c>
-      <c r="AK73">
-        <v>1</v>
-      </c>
-      <c r="AL73">
+      <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>82</v>
       </c>
@@ -8992,10 +8907,10 @@
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -9078,14 +8993,14 @@
       <c r="AJ74">
         <v>5</v>
       </c>
-      <c r="AK74">
-        <v>1</v>
-      </c>
-      <c r="AL74">
+      <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>81</v>
       </c>
@@ -9108,10 +9023,10 @@
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J75">
         <v>7</v>
@@ -9194,14 +9109,14 @@
       <c r="AJ75">
         <v>5</v>
       </c>
-      <c r="AK75">
-        <v>1</v>
-      </c>
-      <c r="AL75">
+      <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
         <v>3.94</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>83</v>
       </c>
@@ -9224,10 +9139,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -9310,14 +9225,14 @@
       <c r="AJ76">
         <v>3</v>
       </c>
-      <c r="AK76">
-        <v>2</v>
-      </c>
-      <c r="AL76">
+      <c r="AM76">
+        <v>2</v>
+      </c>
+      <c r="AN76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>84</v>
       </c>
@@ -9340,10 +9255,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -9426,14 +9341,14 @@
       <c r="AJ77">
         <v>5</v>
       </c>
-      <c r="AK77">
-        <v>3</v>
-      </c>
-      <c r="AL77">
+      <c r="AM77">
+        <v>3</v>
+      </c>
+      <c r="AN77">
         <v>2.75</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>85</v>
       </c>
@@ -9456,10 +9371,10 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J78">
         <v>7</v>
@@ -9542,14 +9457,14 @@
       <c r="AJ78">
         <v>5</v>
       </c>
-      <c r="AK78">
-        <v>1</v>
-      </c>
-      <c r="AL78">
+      <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
         <v>3.98</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>87</v>
       </c>
@@ -9572,10 +9487,10 @@
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -9658,14 +9573,14 @@
       <c r="AJ79">
         <v>3</v>
       </c>
-      <c r="AK79">
-        <v>2</v>
-      </c>
-      <c r="AL79">
+      <c r="AM79">
+        <v>2</v>
+      </c>
+      <c r="AN79">
         <v>3.2</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>86</v>
       </c>
@@ -9688,10 +9603,10 @@
         <v>7</v>
       </c>
       <c r="H80" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J80">
         <v>7</v>
@@ -9774,14 +9689,14 @@
       <c r="AJ80">
         <v>5</v>
       </c>
-      <c r="AK80">
-        <v>1</v>
-      </c>
-      <c r="AL80">
+      <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
         <v>3.3</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>91</v>
       </c>
@@ -9804,10 +9719,10 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J81">
         <v>6</v>
@@ -9890,35 +9805,36 @@
       <c r="AJ81">
         <v>5</v>
       </c>
-      <c r="AK81">
-        <v>1</v>
-      </c>
-      <c r="AL81">
+      <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN81"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" spans="38:38">
+    <row r="16" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL16">
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>103</v>
       </c>
@@ -10034,7 +9950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>106</v>
       </c>
@@ -10150,7 +10066,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>105</v>
       </c>
@@ -10266,7 +10182,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>107</v>
       </c>
@@ -10382,7 +10298,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>108</v>
       </c>
@@ -10498,7 +10414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>109</v>
       </c>
@@ -10614,7 +10530,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>110</v>
       </c>
@@ -10730,7 +10646,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>111</v>
       </c>
@@ -10846,7 +10762,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>112</v>
       </c>
@@ -10962,7 +10878,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>113</v>
       </c>
@@ -11078,7 +10994,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>114</v>
       </c>
@@ -11194,7 +11110,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>115</v>
       </c>
@@ -11310,7 +11226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>116</v>
       </c>
@@ -11426,7 +11342,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>117</v>
       </c>
@@ -11542,7 +11458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>118</v>
       </c>
@@ -11658,7 +11574,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>119</v>
       </c>
@@ -11774,7 +11690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120</v>
       </c>
@@ -11890,7 +11806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>121</v>
       </c>
@@ -12006,7 +11922,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>122</v>
       </c>
@@ -12122,7 +12038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>123</v>
       </c>
@@ -12245,12 +12161,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
